--- a/for 반복문_풀이_1.xlsx
+++ b/for 반복문_풀이_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\javaworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,25 +24,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>for(int num = 0 ; num &lt; 10 ; num += 1) { int num1 = (num + 1) * 100; System.out.println(num1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num1 = (num+1)*100</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,139 +385,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <f>SUM(B3:C3)</f>
+        <v>89</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B3:C3)</f>
+        <v>44.5</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="N6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L10">
-        <v>8</v>
-      </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="N10">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>1000</v>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <f>SUM(B4:C4)</f>
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(B4:C4)</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
